--- a/Gantt.xlsx
+++ b/Gantt.xlsx
@@ -1,16 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="Calc"/>
-  <workbookPr backupFile="false" showObjects="all" date1904="false"/>
-  <workbookProtection/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10116"/>
+  <workbookPr defaultThemeVersion="166925"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Fabrolly/Documents/Personalized Travel Monitor/Documents/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
+    <workbookView xWindow="0" yWindow="440" windowWidth="24820" windowHeight="14620" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId2"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
+  <calcPr calcId="171027" iterateDelta="1E-4"/>
   <extLst>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
       <loext:extCalcPr stringRefSyntax="ExcelA1"/>
@@ -25,55 +29,55 @@
     <t xml:space="preserve">Personalized Travel Monitor </t>
   </si>
   <si>
-    <t xml:space="preserve">Task Name</t>
+    <t>Task Name</t>
   </si>
   <si>
-    <t xml:space="preserve">Start</t>
+    <t>Start</t>
   </si>
   <si>
-    <t xml:space="preserve">End</t>
+    <t>End</t>
   </si>
   <si>
-    <t xml:space="preserve">Duration (days)</t>
+    <t>Duration (days)</t>
   </si>
   <si>
-    <t xml:space="preserve">Users Stories</t>
+    <t>Users Stories</t>
   </si>
   <si>
-    <t xml:space="preserve">Glossary</t>
+    <t>Glossary</t>
   </si>
   <si>
-    <t xml:space="preserve">Requirements Analysis</t>
+    <t>Requirements Analysis</t>
   </si>
   <si>
-    <t xml:space="preserve">Use Cases Diagram</t>
+    <t>Use Cases Diagram</t>
   </si>
   <si>
-    <t xml:space="preserve">Domain Model Diagram</t>
+    <t>Domain Model Diagram</t>
   </si>
   <si>
-    <t xml:space="preserve">System Sequence Diagram</t>
+    <t>System Sequence Diagram</t>
   </si>
   <si>
-    <t xml:space="preserve">Activity Diagram</t>
+    <t>Activity Diagram</t>
   </si>
   <si>
-    <t xml:space="preserve">Contracts</t>
+    <t>Contracts</t>
   </si>
   <si>
-    <t xml:space="preserve">Architectual Design</t>
+    <t>Architectual Design</t>
   </si>
   <si>
-    <t xml:space="preserve">Class Diagram</t>
+    <t>Class Diagram</t>
   </si>
   <si>
-    <t xml:space="preserve">Database Design</t>
+    <t>Database Design</t>
   </si>
   <si>
-    <t xml:space="preserve">Backend Development</t>
+    <t>Backend Development</t>
   </si>
   <si>
-    <t xml:space="preserve">Frontend Development</t>
+    <t>Frontend Development</t>
   </si>
   <si>
     <t xml:space="preserve">Trenitalia Integration </t>
@@ -82,10 +86,10 @@
     <t xml:space="preserve">ATM Integration </t>
   </si>
   <si>
-    <t xml:space="preserve">Final improvements</t>
+    <t>Final improvements</t>
   </si>
   <si>
-    <t xml:space="preserve">Testing</t>
+    <t>Testing</t>
   </si>
   <si>
     <t xml:space="preserve">Documentation </t>
@@ -94,13 +98,11 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="3">
-    <numFmt numFmtId="164" formatCode="General"/>
-    <numFmt numFmtId="165" formatCode="MM/DD/YYYY"/>
-    <numFmt numFmtId="166" formatCode="M/D/YY"/>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="mm/dd/yyyy"/>
   </numFmts>
-  <fonts count="9">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color rgb="FF000000"/>
@@ -109,22 +111,7 @@
       <charset val="1"/>
     </font>
     <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <b val="true"/>
+      <b/>
       <sz val="18"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
@@ -142,21 +129,7 @@
       <sz val="12"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
-      <family val="0"/>
       <charset val="1"/>
-    </font>
-    <font>
-      <b val="true"/>
-      <sz val="18"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
     </font>
   </fonts>
   <fills count="4">
@@ -180,136 +153,85 @@
     </fill>
   </fills>
   <borders count="2">
-    <border diagonalUp="false" diagonalDown="false">
+    <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
       <diagonal/>
     </border>
-    <border diagonalUp="false" diagonalDown="false">
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="20">
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+  <cellStyleXfs count="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="20">
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="1"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false" readingOrder="1"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="164" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false" readingOrder="1"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="164" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="165" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false" readingOrder="1"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
     </xf>
   </cellXfs>
-  <cellStyles count="6">
-    <cellStyle name="Normal" xfId="0" builtinId="0" customBuiltin="false"/>
-    <cellStyle name="Comma" xfId="15" builtinId="3" customBuiltin="false"/>
-    <cellStyle name="Comma [0]" xfId="16" builtinId="6" customBuiltin="false"/>
-    <cellStyle name="Currency" xfId="17" builtinId="4" customBuiltin="false"/>
-    <cellStyle name="Currency [0]" xfId="18" builtinId="7" customBuiltin="false"/>
-    <cellStyle name="Percent" xfId="19" builtinId="5" customBuiltin="false"/>
+  <cellStyles count="1">
+    <cellStyle name="Normale" xfId="0" builtinId="0"/>
   </cellStyles>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <indexedColors>
       <rgbColor rgb="FF000000"/>
@@ -368,15 +290,33 @@
       <rgbColor rgb="FF993366"/>
       <rgbColor rgb="FF333399"/>
       <rgbColor rgb="FF333333"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
     </indexedColors>
   </colors>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:lang val="en-US"/>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="it-IT"/>
   <c:roundedCorners val="0"/>
+  <c:style val="2"/>
   <c:chart>
     <c:title>
       <c:tx>
@@ -385,7 +325,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr b="1" sz="1800" spc="-1" strike="noStrike">
+              <a:defRPr sz="1800" b="1" strike="noStrike" spc="-1">
                 <a:solidFill>
                   <a:srgbClr val="000000"/>
                 </a:solidFill>
@@ -393,7 +333,7 @@
               </a:defRPr>
             </a:pPr>
             <a:r>
-              <a:rPr b="1" sz="1800" spc="-1" strike="noStrike">
+              <a:rPr lang="it-IT" sz="1800" b="1" strike="noStrike" spc="-1">
                 <a:solidFill>
                   <a:srgbClr val="000000"/>
                 </a:solidFill>
@@ -408,14 +348,15 @@
         <c:manualLayout>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.344246827381233"/>
-          <c:y val="0.00955754202507449"/>
+          <c:x val="0.34424682738123302"/>
+          <c:y val="9.5575420250744898E-3"/>
         </c:manualLayout>
       </c:layout>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
+      <c:layout/>
       <c:barChart>
         <c:barDir val="bar"/>
         <c:grouping val="stacked"/>
@@ -442,13 +383,26 @@
           </c:spPr>
           <c:invertIfNegative val="0"/>
           <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
             <c:dLblPos val="ctr"/>
             <c:showLegendKey val="0"/>
             <c:showVal val="0"/>
             <c:showCatName val="0"/>
             <c:showSerName val="0"/>
             <c:showPercent val="0"/>
+            <c:showBubbleSize val="1"/>
             <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="0"/>
+              </c:ext>
+            </c:extLst>
           </c:dLbls>
           <c:cat>
             <c:strRef>
@@ -488,9 +442,6 @@
                 <c:pt idx="10">
                   <c:v>Database Design</c:v>
                 </c:pt>
-                <c:pt idx="11">
-                  <c:v/>
-                </c:pt>
                 <c:pt idx="12">
                   <c:v>Backend Development</c:v>
                 </c:pt>
@@ -519,7 +470,7 @@
             <c:numRef>
               <c:f>Sheet1!$C$7:$C$25</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
+                <c:formatCode>mm/dd/yyyy</c:formatCode>
                 <c:ptCount val="19"/>
                 <c:pt idx="0">
                   <c:v>43060</c:v>
@@ -554,9 +505,6 @@
                 <c:pt idx="10">
                   <c:v>43089</c:v>
                 </c:pt>
-                <c:pt idx="11">
-                  <c:v/>
-                </c:pt>
                 <c:pt idx="12">
                   <c:v>43091</c:v>
                 </c:pt>
@@ -581,6 +529,11 @@
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-2E7A-AB4A-A7D5-DE2BA7AE0A05}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="1"/>
@@ -603,157 +556,26 @@
           </c:spPr>
           <c:invertIfNegative val="0"/>
           <c:dLbls>
-            <c:dLbl>
-              <c:idx val="0"/>
-              <c:dLblPos val="ctr"/>
-              <c:showLegendKey val="0"/>
-              <c:showVal val="0"/>
-              <c:showCatName val="0"/>
-              <c:showSerName val="0"/>
-              <c:showPercent val="0"/>
-            </c:dLbl>
-            <c:dLbl>
-              <c:idx val="1"/>
-              <c:dLblPos val="ctr"/>
-              <c:showLegendKey val="0"/>
-              <c:showVal val="0"/>
-              <c:showCatName val="0"/>
-              <c:showSerName val="0"/>
-              <c:showPercent val="0"/>
-            </c:dLbl>
-            <c:dLbl>
-              <c:idx val="2"/>
-              <c:dLblPos val="ctr"/>
-              <c:showLegendKey val="0"/>
-              <c:showVal val="0"/>
-              <c:showCatName val="0"/>
-              <c:showSerName val="0"/>
-              <c:showPercent val="0"/>
-            </c:dLbl>
-            <c:dLbl>
-              <c:idx val="3"/>
-              <c:dLblPos val="ctr"/>
-              <c:showLegendKey val="0"/>
-              <c:showVal val="0"/>
-              <c:showCatName val="0"/>
-              <c:showSerName val="0"/>
-              <c:showPercent val="0"/>
-            </c:dLbl>
-            <c:dLbl>
-              <c:idx val="4"/>
-              <c:dLblPos val="ctr"/>
-              <c:showLegendKey val="0"/>
-              <c:showVal val="0"/>
-              <c:showCatName val="0"/>
-              <c:showSerName val="0"/>
-              <c:showPercent val="0"/>
-            </c:dLbl>
-            <c:dLbl>
-              <c:idx val="5"/>
-              <c:dLblPos val="ctr"/>
-              <c:showLegendKey val="0"/>
-              <c:showVal val="0"/>
-              <c:showCatName val="0"/>
-              <c:showSerName val="0"/>
-              <c:showPercent val="0"/>
-            </c:dLbl>
-            <c:dLbl>
-              <c:idx val="6"/>
-              <c:dLblPos val="ctr"/>
-              <c:showLegendKey val="0"/>
-              <c:showVal val="0"/>
-              <c:showCatName val="0"/>
-              <c:showSerName val="0"/>
-              <c:showPercent val="0"/>
-            </c:dLbl>
-            <c:dLbl>
-              <c:idx val="7"/>
-              <c:dLblPos val="ctr"/>
-              <c:showLegendKey val="0"/>
-              <c:showVal val="0"/>
-              <c:showCatName val="0"/>
-              <c:showSerName val="0"/>
-              <c:showPercent val="0"/>
-            </c:dLbl>
-            <c:dLbl>
-              <c:idx val="8"/>
-              <c:dLblPos val="ctr"/>
-              <c:showLegendKey val="0"/>
-              <c:showVal val="0"/>
-              <c:showCatName val="0"/>
-              <c:showSerName val="0"/>
-              <c:showPercent val="0"/>
-            </c:dLbl>
-            <c:dLbl>
-              <c:idx val="9"/>
-              <c:dLblPos val="ctr"/>
-              <c:showLegendKey val="0"/>
-              <c:showVal val="0"/>
-              <c:showCatName val="0"/>
-              <c:showSerName val="0"/>
-              <c:showPercent val="0"/>
-            </c:dLbl>
-            <c:dLbl>
-              <c:idx val="10"/>
-              <c:dLblPos val="ctr"/>
-              <c:showLegendKey val="0"/>
-              <c:showVal val="0"/>
-              <c:showCatName val="0"/>
-              <c:showSerName val="0"/>
-              <c:showPercent val="0"/>
-            </c:dLbl>
-            <c:dLbl>
-              <c:idx val="11"/>
-              <c:dLblPos val="ctr"/>
-              <c:showLegendKey val="0"/>
-              <c:showVal val="0"/>
-              <c:showCatName val="0"/>
-              <c:showSerName val="0"/>
-              <c:showPercent val="0"/>
-            </c:dLbl>
-            <c:dLbl>
-              <c:idx val="12"/>
-              <c:dLblPos val="ctr"/>
-              <c:showLegendKey val="0"/>
-              <c:showVal val="0"/>
-              <c:showCatName val="0"/>
-              <c:showSerName val="0"/>
-              <c:showPercent val="0"/>
-            </c:dLbl>
-            <c:dLbl>
-              <c:idx val="13"/>
-              <c:dLblPos val="ctr"/>
-              <c:showLegendKey val="0"/>
-              <c:showVal val="0"/>
-              <c:showCatName val="0"/>
-              <c:showSerName val="0"/>
-              <c:showPercent val="0"/>
-            </c:dLbl>
-            <c:dLbl>
-              <c:idx val="14"/>
-              <c:dLblPos val="ctr"/>
-              <c:showLegendKey val="0"/>
-              <c:showVal val="0"/>
-              <c:showCatName val="0"/>
-              <c:showSerName val="0"/>
-              <c:showPercent val="0"/>
-            </c:dLbl>
-            <c:dLbl>
-              <c:idx val="15"/>
-              <c:dLblPos val="ctr"/>
-              <c:showLegendKey val="0"/>
-              <c:showVal val="0"/>
-              <c:showCatName val="0"/>
-              <c:showSerName val="0"/>
-              <c:showPercent val="0"/>
-            </c:dLbl>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
             <c:dLblPos val="ctr"/>
             <c:showLegendKey val="0"/>
             <c:showVal val="0"/>
             <c:showCatName val="0"/>
             <c:showSerName val="0"/>
             <c:showPercent val="0"/>
+            <c:showBubbleSize val="1"/>
             <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="0"/>
+              </c:ext>
+            </c:extLst>
           </c:dLbls>
           <c:cat>
             <c:strRef>
@@ -792,9 +614,6 @@
                 </c:pt>
                 <c:pt idx="10">
                   <c:v>Database Design</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v/>
                 </c:pt>
                 <c:pt idx="12">
                   <c:v>Backend Development</c:v>
@@ -859,9 +678,6 @@
                 <c:pt idx="10">
                   <c:v>3</c:v>
                 </c:pt>
-                <c:pt idx="11">
-                  <c:v/>
-                </c:pt>
                 <c:pt idx="12">
                   <c:v>19</c:v>
                 </c:pt>
@@ -886,7 +702,20 @@
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000011-2E7A-AB4A-A7D5-DE2BA7AE0A05}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
         <c:gapWidth val="100"/>
         <c:overlap val="100"/>
         <c:axId val="50156424"/>
@@ -898,7 +727,7 @@
           <c:orientation val="maxMin"/>
         </c:scaling>
         <c:delete val="0"/>
-        <c:axPos val="b"/>
+        <c:axPos val="l"/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
@@ -913,15 +742,17 @@
         </c:spPr>
         <c:txPr>
           <a:bodyPr/>
+          <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+              <a:defRPr sz="1000" b="0" strike="noStrike" spc="-1">
                 <a:solidFill>
                   <a:srgbClr val="000000"/>
                 </a:solidFill>
                 <a:latin typeface="Calibri"/>
               </a:defRPr>
             </a:pPr>
+            <a:endParaRPr lang="it-IT"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="3692405"/>
@@ -929,6 +760,7 @@
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="1"/>
       </c:catAx>
       <c:valAx>
         <c:axId val="3692405"/>
@@ -937,7 +769,7 @@
           <c:min val="43060"/>
         </c:scaling>
         <c:delete val="0"/>
-        <c:axPos val="l"/>
+        <c:axPos val="t"/>
         <c:majorGridlines>
           <c:spPr>
             <a:ln w="9360">
@@ -948,7 +780,7 @@
             </a:ln>
           </c:spPr>
         </c:majorGridlines>
-        <c:numFmt formatCode="M/D/YY" sourceLinked="0"/>
+        <c:numFmt formatCode="m/d/yy" sourceLinked="0"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -962,23 +794,26 @@
         </c:spPr>
         <c:txPr>
           <a:bodyPr/>
+          <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+              <a:defRPr sz="1000" b="0" strike="noStrike" spc="-1">
                 <a:solidFill>
                   <a:srgbClr val="000000"/>
                 </a:solidFill>
                 <a:latin typeface="Calibri"/>
               </a:defRPr>
             </a:pPr>
+            <a:endParaRPr lang="it-IT"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="50156424"/>
         <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
       </c:valAx>
       <c:spPr>
         <a:solidFill>
-          <a:srgbClr val="ffffff"/>
+          <a:srgbClr val="FFFFFF"/>
         </a:solidFill>
         <a:ln>
           <a:noFill/>
@@ -987,20 +822,26 @@
     </c:plotArea>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="1"/>
   </c:chart>
   <c:spPr>
     <a:solidFill>
-      <a:srgbClr val="ffffff"/>
+      <a:srgbClr val="FFFFFF"/>
     </a:solidFill>
     <a:ln>
       <a:noFill/>
     </a:ln>
   </c:spPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0" l="0" r="0" t="0" header="0" footer="0"/>
+    <c:pageSetup/>
+  </c:printSettings>
 </c:chartSpace>
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>5</xdr:col>
@@ -1014,14 +855,20 @@
       <xdr:row>28</xdr:row>
       <xdr:rowOff>165240</xdr:rowOff>
     </xdr:to>
-    <xdr:graphicFrame>
+    <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="0" name="Chart 2"/>
+        <xdr:cNvPr id="2" name="Chart 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="6539400" y="708840"/>
-        <a:ext cx="15261120" cy="6398640"/>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -1034,35 +881,326 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema di Office">
+  <a:themeElements>
+    <a:clrScheme name="Office">
+      <a:dk1>
+        <a:sysClr val="windowText" lastClr="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="44546A"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="E7E6E6"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="4472C4"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="ED7D31"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="A5A5A5"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="FFC000"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="5B9BD5"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="70AD47"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="0563C1"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="954F72"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Office">
+      <a:majorFont>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック Light"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线 Light"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme name="Office">
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="110000"/>
+                <a:satMod val="105000"/>
+                <a:tint val="67000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="103000"/>
+                <a:tint val="73000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="109000"/>
+                <a:tint val="81000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:satMod val="103000"/>
+                <a:lumMod val="102000"/>
+                <a:tint val="94000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:satMod val="110000"/>
+                <a:lumMod val="100000"/>
+                <a:shade val="100000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="99000"/>
+                <a:satMod val="120000"/>
+                <a:shade val="78000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="63000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:tint val="95000"/>
+            <a:satMod val="170000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="93000"/>
+                <a:satMod val="150000"/>
+                <a:shade val="98000"/>
+                <a:lumMod val="102000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:tint val="98000"/>
+                <a:satMod val="130000"/>
+                <a:shade val="90000"/>
+                <a:lumMod val="103000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="63000"/>
+                <a:satMod val="120000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
+  <a:extLst>
+    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+    </a:ext>
+  </a:extLst>
+</a:theme>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:IW25"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A3" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E15" activeCellId="0" sqref="E15"/>
+    <sheetView tabSelected="1" topLeftCell="A3" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
+      <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="5"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="25.83"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="11"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="10.33"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="12.83"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="8.17"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="7" style="0" width="11"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="16" style="0" width="10.66"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="17" min="17" style="0" width="4.5"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="18" min="18" style="0" width="10.66"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="19" min="19" style="1" width="10.66"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="20" min="20" style="0" width="10.66"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="21" style="0" width="11"/>
+    <col min="1" max="1" width="5" customWidth="1"/>
+    <col min="2" max="2" width="25.83203125" customWidth="1"/>
+    <col min="3" max="4" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.83203125" customWidth="1"/>
+    <col min="6" max="6" width="8.1640625" customWidth="1"/>
+    <col min="7" max="15" width="11" customWidth="1"/>
+    <col min="16" max="16" width="10.6640625" customWidth="1"/>
+    <col min="17" max="17" width="4.5" customWidth="1"/>
+    <col min="18" max="18" width="10.6640625" customWidth="1"/>
+    <col min="19" max="19" width="10.6640625" style="1" customWidth="1"/>
+    <col min="20" max="20" width="10.6640625" customWidth="1"/>
+    <col min="21" max="1025" width="11" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="43" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="1" spans="1:257" ht="43" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="2"/>
       <c r="B1" s="3" t="s">
         <v>0</v>
@@ -1323,7 +1461,7 @@
       <c r="IV1" s="4"/>
       <c r="IW1" s="4"/>
     </row>
-    <row r="2" customFormat="false" ht="43" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="2" spans="1:257" ht="43" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="4"/>
       <c r="B2" s="4"/>
       <c r="C2" s="4"/>
@@ -1582,7 +1720,7 @@
       <c r="IV2" s="4"/>
       <c r="IW2" s="4"/>
     </row>
-    <row r="3" customFormat="false" ht="28" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="3" spans="1:257" ht="28" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="4"/>
       <c r="B3" s="4"/>
       <c r="C3" s="4"/>
@@ -1841,7 +1979,7 @@
       <c r="IV3" s="4"/>
       <c r="IW3" s="4"/>
     </row>
-    <row r="4" customFormat="false" ht="28" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="4" spans="1:257" ht="28" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="4"/>
       <c r="B4" s="4"/>
       <c r="C4" s="4"/>
@@ -2100,7 +2238,7 @@
       <c r="IV4" s="4"/>
       <c r="IW4" s="4"/>
     </row>
-    <row r="5" customFormat="false" ht="32" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="5" spans="1:257" ht="32" x14ac:dyDescent="0.2">
       <c r="A5" s="4"/>
       <c r="B5" s="6" t="s">
         <v>1</v>
@@ -2367,7 +2505,7 @@
       <c r="IV5" s="4"/>
       <c r="IW5" s="4"/>
     </row>
-    <row r="6" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="6" spans="1:257" x14ac:dyDescent="0.2">
       <c r="A6" s="4"/>
       <c r="B6" s="7"/>
       <c r="C6" s="7"/>
@@ -2626,19 +2764,19 @@
       <c r="IV6" s="4"/>
       <c r="IW6" s="4"/>
     </row>
-    <row r="7" customFormat="false" ht="21" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="7" spans="1:257" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="4"/>
       <c r="B7" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="C7" s="9" t="n">
+      <c r="C7" s="9">
         <v>43060</v>
       </c>
-      <c r="D7" s="9" t="n">
+      <c r="D7" s="9">
         <v>43061</v>
       </c>
-      <c r="E7" s="8" t="n">
-        <f aca="false">D7-C7</f>
+      <c r="E7" s="8">
+        <f t="shared" ref="E7:E17" si="0">D7-C7</f>
         <v>1</v>
       </c>
       <c r="F7" s="4"/>
@@ -2894,19 +3032,19 @@
       <c r="IV7" s="4"/>
       <c r="IW7" s="4"/>
     </row>
-    <row r="8" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="8" spans="1:257" x14ac:dyDescent="0.2">
       <c r="A8" s="4"/>
       <c r="B8" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="C8" s="9" t="n">
+      <c r="C8" s="9">
         <v>43060</v>
       </c>
-      <c r="D8" s="9" t="n">
+      <c r="D8" s="9">
         <v>43061</v>
       </c>
-      <c r="E8" s="8" t="n">
-        <f aca="false">D8-C8</f>
+      <c r="E8" s="8">
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="F8" s="4"/>
@@ -3162,19 +3300,19 @@
       <c r="IV8" s="4"/>
       <c r="IW8" s="4"/>
     </row>
-    <row r="9" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="9" spans="1:257" x14ac:dyDescent="0.2">
       <c r="A9" s="4"/>
       <c r="B9" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="C9" s="9" t="n">
+      <c r="C9" s="9">
         <v>43061</v>
       </c>
-      <c r="D9" s="9" t="n">
+      <c r="D9" s="9">
         <v>43064</v>
       </c>
-      <c r="E9" s="8" t="n">
-        <f aca="false">D9-C9</f>
+      <c r="E9" s="8">
+        <f t="shared" si="0"/>
         <v>3</v>
       </c>
       <c r="F9" s="4"/>
@@ -3430,19 +3568,19 @@
       <c r="IV9" s="4"/>
       <c r="IW9" s="4"/>
     </row>
-    <row r="10" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="10" spans="1:257" x14ac:dyDescent="0.2">
       <c r="A10" s="4"/>
       <c r="B10" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="C10" s="9" t="n">
+      <c r="C10" s="9">
         <v>43063</v>
       </c>
-      <c r="D10" s="9" t="n">
+      <c r="D10" s="9">
         <v>43068</v>
       </c>
-      <c r="E10" s="8" t="n">
-        <f aca="false">D10-C10</f>
+      <c r="E10" s="8">
+        <f t="shared" si="0"/>
         <v>5</v>
       </c>
       <c r="F10" s="4"/>
@@ -3698,19 +3836,19 @@
       <c r="IV10" s="4"/>
       <c r="IW10" s="4"/>
     </row>
-    <row r="11" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="11" spans="1:257" x14ac:dyDescent="0.2">
       <c r="A11" s="4"/>
       <c r="B11" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="C11" s="9" t="n">
+      <c r="C11" s="9">
         <v>43068</v>
       </c>
-      <c r="D11" s="9" t="n">
+      <c r="D11" s="9">
         <v>43072</v>
       </c>
-      <c r="E11" s="12" t="n">
-        <f aca="false">D11-C11</f>
+      <c r="E11" s="12">
+        <f t="shared" si="0"/>
         <v>4</v>
       </c>
       <c r="F11" s="4"/>
@@ -3966,19 +4104,19 @@
       <c r="IV11" s="4"/>
       <c r="IW11" s="4"/>
     </row>
-    <row r="12" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="12" spans="1:257" x14ac:dyDescent="0.2">
       <c r="A12" s="4"/>
       <c r="B12" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="C12" s="9" t="n">
+      <c r="C12" s="9">
         <v>43072</v>
       </c>
-      <c r="D12" s="13" t="n">
+      <c r="D12" s="13">
         <v>43082</v>
       </c>
-      <c r="E12" s="12" t="n">
-        <f aca="false">D12-C12</f>
+      <c r="E12" s="12">
+        <f t="shared" si="0"/>
         <v>10</v>
       </c>
       <c r="F12" s="4"/>
@@ -4234,19 +4372,19 @@
       <c r="IV12" s="4"/>
       <c r="IW12" s="4"/>
     </row>
-    <row r="13" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="13" spans="1:257" x14ac:dyDescent="0.2">
       <c r="A13" s="4"/>
       <c r="B13" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="C13" s="9" t="n">
+      <c r="C13" s="9">
         <v>43072</v>
       </c>
-      <c r="D13" s="13" t="n">
+      <c r="D13" s="13">
         <v>43082</v>
       </c>
-      <c r="E13" s="12" t="n">
-        <f aca="false">D13-C13</f>
+      <c r="E13" s="12">
+        <f t="shared" si="0"/>
         <v>10</v>
       </c>
       <c r="F13" s="4"/>
@@ -4502,19 +4640,19 @@
       <c r="IV13" s="4"/>
       <c r="IW13" s="4"/>
     </row>
-    <row r="14" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="14" spans="1:257" x14ac:dyDescent="0.2">
       <c r="A14" s="4"/>
       <c r="B14" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="C14" s="9" t="n">
+      <c r="C14" s="9">
         <v>43083</v>
       </c>
-      <c r="D14" s="13" t="n">
+      <c r="D14" s="13">
         <v>43089</v>
       </c>
-      <c r="E14" s="12" t="n">
-        <f aca="false">D14-C14</f>
+      <c r="E14" s="12">
+        <f t="shared" si="0"/>
         <v>6</v>
       </c>
       <c r="F14" s="4"/>
@@ -4770,19 +4908,19 @@
       <c r="IV14" s="4"/>
       <c r="IW14" s="4"/>
     </row>
-    <row r="15" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="15" spans="1:257" x14ac:dyDescent="0.2">
       <c r="A15" s="4"/>
       <c r="B15" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="C15" s="9" t="n">
+      <c r="C15" s="9">
         <v>43085</v>
       </c>
-      <c r="D15" s="13" t="n">
+      <c r="D15" s="13">
         <v>43091</v>
       </c>
-      <c r="E15" s="12" t="n">
-        <f aca="false">D15-C15</f>
+      <c r="E15" s="12">
+        <f t="shared" si="0"/>
         <v>6</v>
       </c>
       <c r="F15" s="4"/>
@@ -5038,19 +5176,19 @@
       <c r="IV15" s="4"/>
       <c r="IW15" s="4"/>
     </row>
-    <row r="16" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="16" spans="1:257" x14ac:dyDescent="0.2">
       <c r="A16" s="4"/>
       <c r="B16" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="C16" s="9" t="n">
+      <c r="C16" s="9">
         <v>43089</v>
       </c>
-      <c r="D16" s="13" t="n">
+      <c r="D16" s="13">
         <v>43092</v>
       </c>
-      <c r="E16" s="12" t="n">
-        <f aca="false">D16-C16</f>
+      <c r="E16" s="12">
+        <f t="shared" si="0"/>
         <v>3</v>
       </c>
       <c r="F16" s="4"/>
@@ -5306,19 +5444,19 @@
       <c r="IV16" s="4"/>
       <c r="IW16" s="4"/>
     </row>
-    <row r="17" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="17" spans="1:257" x14ac:dyDescent="0.2">
       <c r="A17" s="4"/>
       <c r="B17" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="C17" s="9" t="n">
+      <c r="C17" s="9">
         <v>43089</v>
       </c>
-      <c r="D17" s="9" t="n">
+      <c r="D17" s="9">
         <v>43092</v>
       </c>
-      <c r="E17" s="12" t="n">
-        <f aca="false">D17-C17</f>
+      <c r="E17" s="12">
+        <f t="shared" si="0"/>
         <v>3</v>
       </c>
       <c r="F17" s="4"/>
@@ -5574,7 +5712,7 @@
       <c r="IV17" s="4"/>
       <c r="IW17" s="4"/>
     </row>
-    <row r="18" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="18" spans="1:257" x14ac:dyDescent="0.2">
       <c r="A18" s="14"/>
       <c r="B18" s="11"/>
       <c r="C18" s="9"/>
@@ -5833,19 +5971,19 @@
       <c r="IV18" s="4"/>
       <c r="IW18" s="4"/>
     </row>
-    <row r="19" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="19" spans="1:257" x14ac:dyDescent="0.2">
       <c r="A19" s="14"/>
       <c r="B19" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="C19" s="15" t="n">
+      <c r="C19" s="15">
         <v>43091</v>
       </c>
-      <c r="D19" s="9" t="n">
+      <c r="D19" s="9">
         <v>43110</v>
       </c>
-      <c r="E19" s="12" t="n">
-        <f aca="false">D19-C19</f>
+      <c r="E19" s="12">
+        <f t="shared" ref="E19:E25" si="1">D19-C19</f>
         <v>19</v>
       </c>
       <c r="F19" s="4"/>
@@ -6101,19 +6239,19 @@
       <c r="IV19" s="4"/>
       <c r="IW19" s="4"/>
     </row>
-    <row r="20" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="20" spans="1:257" x14ac:dyDescent="0.2">
       <c r="A20" s="14"/>
       <c r="B20" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="C20" s="16" t="n">
+      <c r="C20" s="16">
         <v>43091</v>
       </c>
-      <c r="D20" s="16" t="n">
+      <c r="D20" s="16">
         <v>43117</v>
       </c>
-      <c r="E20" s="12" t="n">
-        <f aca="false">D20-C20</f>
+      <c r="E20" s="12">
+        <f t="shared" si="1"/>
         <v>26</v>
       </c>
       <c r="F20" s="4"/>
@@ -6369,19 +6507,19 @@
       <c r="IV20" s="4"/>
       <c r="IW20" s="4"/>
     </row>
-    <row r="21" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="21" spans="1:257" x14ac:dyDescent="0.2">
       <c r="A21" s="14"/>
       <c r="B21" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="C21" s="17" t="n">
+      <c r="C21" s="17">
         <v>43103</v>
       </c>
-      <c r="D21" s="17" t="n">
+      <c r="D21" s="17">
         <v>43117</v>
       </c>
-      <c r="E21" s="12" t="n">
-        <f aca="false">D21-C21</f>
+      <c r="E21" s="12">
+        <f t="shared" si="1"/>
         <v>14</v>
       </c>
       <c r="F21" s="4"/>
@@ -6637,19 +6775,19 @@
       <c r="IV21" s="4"/>
       <c r="IW21" s="4"/>
     </row>
-    <row r="22" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="22" spans="1:257" x14ac:dyDescent="0.2">
       <c r="A22" s="14"/>
       <c r="B22" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="C22" s="17" t="n">
+      <c r="C22" s="17">
         <v>43103</v>
       </c>
-      <c r="D22" s="17" t="n">
+      <c r="D22" s="17">
         <v>43117</v>
       </c>
-      <c r="E22" s="12" t="n">
-        <f aca="false">D22-C22</f>
+      <c r="E22" s="12">
+        <f t="shared" si="1"/>
         <v>14</v>
       </c>
       <c r="F22" s="4"/>
@@ -6905,19 +7043,19 @@
       <c r="IV22" s="4"/>
       <c r="IW22" s="4"/>
     </row>
-    <row r="23" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="23" spans="1:257" x14ac:dyDescent="0.2">
       <c r="A23" s="14"/>
       <c r="B23" s="18" t="s">
         <v>20</v>
       </c>
-      <c r="C23" s="17" t="n">
+      <c r="C23" s="17">
         <v>43115</v>
       </c>
-      <c r="D23" s="19" t="n">
+      <c r="D23" s="19">
         <v>43125</v>
       </c>
-      <c r="E23" s="12" t="n">
-        <f aca="false">D23-C23</f>
+      <c r="E23" s="12">
+        <f t="shared" si="1"/>
         <v>10</v>
       </c>
       <c r="F23" s="4"/>
@@ -7173,19 +7311,19 @@
       <c r="IV23" s="4"/>
       <c r="IW23" s="4"/>
     </row>
-    <row r="24" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="24" spans="1:257" x14ac:dyDescent="0.2">
       <c r="A24" s="14"/>
       <c r="B24" s="18" t="s">
         <v>21</v>
       </c>
-      <c r="C24" s="16" t="n">
+      <c r="C24" s="16">
         <v>43091</v>
       </c>
-      <c r="D24" s="16" t="n">
+      <c r="D24" s="16">
         <v>43125</v>
       </c>
-      <c r="E24" s="12" t="n">
-        <f aca="false">D24-C24</f>
+      <c r="E24" s="12">
+        <f t="shared" si="1"/>
         <v>34</v>
       </c>
       <c r="F24" s="4"/>
@@ -7441,19 +7579,19 @@
       <c r="IV24" s="4"/>
       <c r="IW24" s="4"/>
     </row>
-    <row r="25" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="25" spans="1:257" x14ac:dyDescent="0.2">
       <c r="A25" s="14"/>
       <c r="B25" s="18" t="s">
         <v>22</v>
       </c>
-      <c r="C25" s="16" t="n">
+      <c r="C25" s="16">
         <v>43091</v>
       </c>
-      <c r="D25" s="16" t="n">
+      <c r="D25" s="16">
         <v>43125</v>
       </c>
-      <c r="E25" s="12" t="n">
-        <f aca="false">D25-C25</f>
+      <c r="E25" s="12">
+        <f t="shared" si="1"/>
         <v>34</v>
       </c>
       <c r="F25" s="4"/>
@@ -7710,12 +7848,10 @@
       <c r="IW25" s="4"/>
     </row>
   </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.511805555555555"/>
-  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.51180555555555496"/>
+  <pageSetup firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+  <headerFooter>
     <oddHeader>&amp;CGantt Chart_x005F_x000D_</oddHeader>
-    <oddFooter/>
   </headerFooter>
   <drawing r:id="rId1"/>
 </worksheet>

--- a/Gantt.xlsx
+++ b/Gantt.xlsx
@@ -1181,7 +1181,7 @@
   <dimension ref="A1:IW25"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A3" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
-      <selection activeCell="E15" sqref="E15"/>
+      <selection activeCell="D23" sqref="D23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
